--- a/data/132/EPSE/CAC 40 Price Index - Daily.xlsx
+++ b/data/132/EPSE/CAC 40 Price Index - Daily.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:MJR2"/>
+  <dimension ref="A1:MJT2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45684,15 +45684,25 @@
       </c>
       <c r="MJP1" s="1" t="inlineStr">
         <is>
+          <t>2022-04-04</t>
+        </is>
+      </c>
+      <c r="MJQ1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-05</t>
+        </is>
+      </c>
+      <c r="MJR1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="MJQ1" s="1" t="inlineStr">
+      <c r="MJS1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="MJR1" s="1" t="inlineStr">
+      <c r="MJT1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -72404,19 +72414,25 @@
         <v>6659.87</v>
       </c>
       <c r="MJO2" t="n">
-        <v>6673.67</v>
-      </c>
-      <c r="MJP2" t="inlineStr">
+        <v>6684.31</v>
+      </c>
+      <c r="MJP2" t="n">
+        <v>6731.37</v>
+      </c>
+      <c r="MJQ2" t="n">
+        <v>6645.51</v>
+      </c>
+      <c r="MJR2" t="inlineStr">
         <is>
           <t>CAC40</t>
         </is>
       </c>
-      <c r="MJQ2" t="inlineStr">
+      <c r="MJS2" t="inlineStr">
         <is>
           <t>CAC 40 Price Index, Close Price</t>
         </is>
       </c>
-      <c r="MJR2" t="inlineStr">
+      <c r="MJT2" t="inlineStr">
         <is>
           <t>Index: 1987.12.31=1000</t>
         </is>
